--- a/Electrical/Circuit Boards/Jetson Add-On/DigiKey_BOM.xlsx
+++ b/Electrical/Circuit Boards/Jetson Add-On/DigiKey_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\MAVRIC Jetson Add-On\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brady\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA6C24A0-7740-4DB8-99A6-FF9BC5D87337}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB25C5C0-67B1-42AA-A595-CF3BCCF98CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="1515" windowWidth="20910" windowHeight="11835" xr2:uid="{A23E33B8-F255-3442-92E0-43F77F03593A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A23E33B8-F255-3442-92E0-43F77F03593A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Qty</t>
   </si>
@@ -62,18 +57,12 @@
     <t>ADC IC</t>
   </si>
   <si>
-    <t>CAN Tranciever IC</t>
-  </si>
-  <si>
     <t>https://www.adafruit.com/product/790</t>
   </si>
   <si>
     <t>GPS Module</t>
   </si>
   <si>
-    <t xml:space="preserve">S7118-ND </t>
-  </si>
-  <si>
     <t>30-Pin Header</t>
   </si>
   <si>
@@ -81,6 +70,18 @@
   </si>
   <si>
     <t>Coin Cell Holder</t>
+  </si>
+  <si>
+    <t>PPPC152LFBN-RC</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/2223</t>
+  </si>
+  <si>
+    <t>GPIO Stacking Header</t>
+  </si>
+  <si>
+    <t>CAN Transceiver IC</t>
   </si>
 </sst>
 </file>
@@ -90,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +110,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,11 +155,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -161,9 +171,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,18 +491,18 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="2"/>
+    <col min="4" max="4" width="10.8984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -504,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>2</v>
       </c>
@@ -515,10 +527,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="6">
+        <f>2.26*A2</f>
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -526,13 +539,14 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6">
-        <v>5.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f>2.68*A3</f>
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -543,151 +557,167 @@
         <v>9</v>
       </c>
       <c r="D4" s="6">
-        <v>7.14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <f>7.34*A4</f>
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6">
+        <f>1.89*A5</f>
         <v>1.89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <f>0.54*A6</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6">
+        <f>2.5*A21</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>1</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D22" s="6">
         <v>29.95</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C23" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="6">
-        <f>SUM(D2:D21)</f>
-        <v>19.59</v>
+        <f>SUM(D2:D20)</f>
+        <v>19.649999999999999</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{5C43D2E8-6226-4A6B-A600-D5DBC8E11B2C}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{9CFCF189-FDBE-47DD-A404-F4EE6823B62A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>